--- a/notebook/input.xlsx
+++ b/notebook/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\PIBIC2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luciano\Documents\GitHub\PIBIC2021\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA3C9C-7276-4401-8590-CD099F4873FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3693CE-5EE5-4B7F-A4C3-FEBEFCC637EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2460" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{CF7882E5-7B46-4257-BE9F-380EA4186D27}"/>
+    <workbookView xWindow="1830" yWindow="2490" windowWidth="17025" windowHeight="11295" xr2:uid="{CF7882E5-7B46-4257-BE9F-380EA4186D27}"/>
   </bookViews>
   <sheets>
     <sheet name="geradores" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB962A99-F04E-4EFF-891D-3FDC0D1EBB82}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,10 +512,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="I2" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -541,10 +541,10 @@
         <v>18</v>
       </c>
       <c r="H3" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="1">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
         <v>15</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BC7439-4EC1-4DF1-AD03-8EBEBA03AD77}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
